--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/20/seed4/result_data_RandomForest.xlsx
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.168899999999994</v>
+        <v>-7.983999999999994</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -553,13 +553,13 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.4051</v>
+        <v>-13.5504</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.651</v>
+        <v>15.5146</v>
       </c>
     </row>
     <row r="8">
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.816999999999998</v>
+        <v>5.998099999999996</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.88629999999999</v>
+        <v>16.5827</v>
       </c>
     </row>
     <row r="11">
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.7622</v>
+        <v>-10.6412</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -652,7 +652,7 @@
         <v>-22.15</v>
       </c>
       <c r="B13" t="n">
-        <v>6.172799999999995</v>
+        <v>6.646799999999998</v>
       </c>
       <c r="C13" t="n">
         <v>-15.83</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.2269</v>
+        <v>16.5236</v>
       </c>
     </row>
     <row r="14">
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.3023</v>
+        <v>-13.42899999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-9.070599999999992</v>
+        <v>-8.752499999999996</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.476099999999997</v>
+        <v>5.226600000000002</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>15.9302</v>
+        <v>15.8038</v>
       </c>
     </row>
     <row r="17">
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.634399999999997</v>
+        <v>5.786499999999998</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.32340000000002</v>
+        <v>-12.25420000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.865499999999995</v>
+        <v>8.858399999999996</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.6493</v>
+        <v>15.65419999999999</v>
       </c>
     </row>
     <row r="21">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.62650000000001</v>
+        <v>16.68070000000001</v>
       </c>
     </row>
     <row r="25">
@@ -873,10 +873,10 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>7.2186</v>
+        <v>7.025900000000003</v>
       </c>
       <c r="C26" t="n">
-        <v>-13.64660000000001</v>
+        <v>-13.3047</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,10 +890,10 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.960900000000001</v>
+        <v>6.5378</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.08929999999999</v>
+        <v>-13.39329999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.839699999999995</v>
+        <v>-8.818299999999997</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -924,10 +924,10 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.029799999999998</v>
+        <v>5.162199999999997</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.6518</v>
+        <v>-10.7708</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.70229999999999</v>
+        <v>16.84709999999998</v>
       </c>
     </row>
     <row r="33">
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.834000000000006</v>
+        <v>-7.759400000000004</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1026,13 +1026,13 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.316100000000008</v>
+        <v>8.551800000000004</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.624099999999993</v>
+        <v>-8.878299999999991</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.934900000000006</v>
+        <v>9.186100000000009</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-14.0514</v>
+        <v>-13.2575</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,10 +1080,10 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.4738</v>
+        <v>-13.2749</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.712699999999996</v>
+        <v>-8.666499999999996</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.39920000000001</v>
+        <v>16.171</v>
       </c>
     </row>
     <row r="40">
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.282100000000002</v>
+        <v>-8.253700000000002</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.403199999999999</v>
+        <v>-7.632100000000001</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1196,13 +1196,13 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.057099999999999</v>
+        <v>5.609500000000001</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.754599999999999</v>
+        <v>-7.990899999999995</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1233,13 +1233,13 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.7297</v>
+        <v>-11.57700000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.781000000000005</v>
+        <v>-7.461000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>16.8885</v>
+        <v>16.9571</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.36</v>
+        <v>17.4634</v>
       </c>
     </row>
     <row r="49">
@@ -1301,10 +1301,10 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.5877</v>
+        <v>-12.6206</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.097300000000002</v>
+        <v>-7.919800000000002</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1318,13 +1318,13 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.1126</v>
+        <v>-11.3441</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.25140000000001</v>
+        <v>17.32850000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.501499999999998</v>
+        <v>-8.322799999999999</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1366,10 +1366,10 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.8239</v>
+        <v>5.806999999999996</v>
       </c>
       <c r="C55" t="n">
-        <v>-14.13850000000001</v>
+        <v>-14.04770000000001</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.2318</v>
+        <v>16.41870000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1400,13 +1400,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.995099999999997</v>
+        <v>5.052799999999998</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.4031</v>
+        <v>-8.433299999999997</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.702699999999997</v>
+        <v>-8.400299999999994</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.455700000000003</v>
+        <v>-7.887099999999997</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.436900000000003</v>
+        <v>-6.545200000000003</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1604,10 +1604,10 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.026099999999997</v>
+        <v>6.184699999999993</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.4135</v>
+        <v>-11.2874</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.3857</v>
+        <v>-12.232</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.249900000000004</v>
+        <v>-8.078900000000004</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1723,10 +1723,10 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.141700000000004</v>
+        <v>5.295600000000004</v>
       </c>
       <c r="C76" t="n">
-        <v>-11.8329</v>
+        <v>-12.5997</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.909300000000004</v>
+        <v>9.7254</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1811,10 +1811,10 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.5183</v>
+        <v>-12.3951</v>
       </c>
       <c r="D81" t="n">
-        <v>-8.351100000000008</v>
+        <v>-8.258700000000005</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.897900000000001</v>
+        <v>5.8905</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>6.548599999999999</v>
+        <v>6.452599999999998</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.2731</v>
+        <v>-14.171</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>17.09430000000001</v>
+        <v>17.04459999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.373099999999998</v>
+        <v>-7.361599999999995</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.110799999999996</v>
+        <v>6.107199999999997</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.0978</v>
+        <v>-10.0283</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.283799999999996</v>
+        <v>-8.268299999999996</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2080,7 +2080,7 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>6.509899999999998</v>
+        <v>6.075400000000001</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.784999999999997</v>
+        <v>-7.934799999999997</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2134,13 +2134,13 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-11.0481</v>
+        <v>-10.9208</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.8075</v>
+        <v>16.8979</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.70470000000001</v>
+        <v>16.65050000000003</v>
       </c>
     </row>
     <row r="102">
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.6835</v>
+        <v>-13.76410000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
